--- a/advanced-programming-project/productsAP.xlsx
+++ b/advanced-programming-project/productsAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/advanced-programming-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564C6ED-4668-DA4C-AB28-A54AEB5E3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F467E-1AB7-0B43-9253-D84687BA6BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Apple</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Graphic Tablet</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>249</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>199</t>
   </si>
   <si>
@@ -177,13 +171,73 @@
   </si>
   <si>
     <t>379</t>
+  </si>
+  <si>
+    <t>S21 Ultra.jpeg</t>
+  </si>
+  <si>
+    <t>Wacom Graphic Tablet.jpeg</t>
+  </si>
+  <si>
+    <t>Elgato Content Creation Controller.jpg</t>
+  </si>
+  <si>
+    <t>SteelSeries Wireless Gaming Headset.jpeg</t>
+  </si>
+  <si>
+    <t>Corsair Mechanical Keyboard.jpeg</t>
+  </si>
+  <si>
+    <t>Razer Wired Mouse.jpg</t>
+  </si>
+  <si>
+    <t>Logitech Wireless Mouse.jpeg</t>
+  </si>
+  <si>
+    <t>Apple Wireless Earbuds.jpeg</t>
+  </si>
+  <si>
+    <t>Jabra True Wireless Earbuds.jpeg</t>
+  </si>
+  <si>
+    <t>Bose Earbuds.png</t>
+  </si>
+  <si>
+    <t>Sony Wireless Headphones.jpeg</t>
+  </si>
+  <si>
+    <t>Acer X27.jpeg</t>
+  </si>
+  <si>
+    <t>LG 27UL850-W.jpeg</t>
+  </si>
+  <si>
+    <t>Asus UX425.jpeg</t>
+  </si>
+  <si>
+    <t>HP x360.jpeg</t>
+  </si>
+  <si>
+    <t>Lenovo X1 Carbon.jpeg</t>
+  </si>
+  <si>
+    <t>Dell 13.jpeg</t>
+  </si>
+  <si>
+    <t>Microsoft Laptop 4.jpeg</t>
+  </si>
+  <si>
+    <t>google 5.jpeg</t>
+  </si>
+  <si>
+    <t>12 Pro Max .jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,6 +247,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +293,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,21 +608,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +633,11 @@
       <c r="C1" s="1">
         <v>1099</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,30 +647,39 @@
       <c r="C2" s="1">
         <v>1199</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>1299</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,10 +687,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -615,8 +703,11 @@
       <c r="C6" s="1">
         <v>1749</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,8 +717,11 @@
       <c r="C7" s="1">
         <v>1299</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,8 +731,11 @@
       <c r="C8" s="1">
         <v>1199</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,10 +743,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -659,8 +759,11 @@
       <c r="C10" s="1">
         <v>1999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -668,10 +771,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -679,10 +785,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -690,10 +799,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,32 +813,41 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -734,10 +855,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -745,10 +869,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -756,10 +883,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -767,6 +897,9 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
